--- a/data/trans_camb/P1419-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-3.31704969515159</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.732781278232794</v>
+        <v>3.732781278232791</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.08608926445843115</v>
@@ -664,7 +664,7 @@
         <v>-2.284559637392372</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.602423123308341</v>
+        <v>2.602423123308342</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.648958253073778</v>
+        <v>-2.709476371341436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.838302168598822</v>
+        <v>-3.005111973404414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6070032081969412</v>
+        <v>-0.6527225028282166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.004496283975715</v>
+        <v>-2.196258442621733</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.023425398612088</v>
+        <v>-5.830305404523141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9820291883149885</v>
+        <v>0.8751253068382928</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.654194960073883</v>
+        <v>-1.883256474859597</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.738806859470054</v>
+        <v>-3.897334713475008</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.04847463106218</v>
+        <v>0.7734639498398223</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.516212192869008</v>
+        <v>0.7326122005916224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2649682821689576</v>
+        <v>0.1698596741609902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.05180920315593</v>
+        <v>3.147845110580309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.837280079885731</v>
+        <v>3.673617931737219</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5710250513117124</v>
+        <v>-0.6885323484137869</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.554688032955138</v>
+        <v>6.252310910359432</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.587397933976191</v>
+        <v>1.530054957174693</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.9019388228431944</v>
+        <v>-0.8766399188836504</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.443443092121878</v>
+        <v>4.201723947305767</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.4214939843072987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4743205553446281</v>
+        <v>0.4743205553446277</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.0163367505262782</v>
@@ -769,7 +769,7 @@
         <v>-0.433530023671013</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4938494665596179</v>
+        <v>0.4938494665596181</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7358868922553681</v>
+        <v>-0.7318782716640825</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.784223592359277</v>
+        <v>-0.8180853802398366</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1871960927849723</v>
+        <v>-0.1768383546464289</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2236838349188862</v>
+        <v>-0.2349013335385861</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6413335046654006</v>
+        <v>-0.6362459162487375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09751899995616024</v>
+        <v>0.0853850246313996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.275866876971745</v>
+        <v>-0.3081917328240047</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6164239676795298</v>
+        <v>-0.6287730469194223</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1654875741708931</v>
+        <v>0.1272509570755052</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3783669971212183</v>
+        <v>0.509356611676226</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2396334815205227</v>
+        <v>0.1611689989242292</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.72296075154342</v>
+        <v>1.751056630404313</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5833746457492764</v>
+        <v>0.5844767874798414</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.07995167875950906</v>
+        <v>-0.08924979011363451</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.077520940907338</v>
+        <v>0.9903135451083944</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3677475284597651</v>
+        <v>0.3417335049128982</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1787589740488196</v>
+        <v>-0.1780142837893322</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.017561797651239</v>
+        <v>0.9335237582524193</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.008746946141254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1209115609304468</v>
+        <v>0.1209115609304472</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.765511420815356</v>
@@ -869,7 +869,7 @@
         <v>-3.473185738695792</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.2164621883345666</v>
+        <v>-0.216462188334568</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.770680478567872</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.212403228451673</v>
+        <v>-3.216286996465249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.645818176760249</v>
+        <v>-3.234789892327723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.499779318604267</v>
+        <v>-1.469465990560745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.458866087669666</v>
+        <v>-4.57651717526916</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.212230549702386</v>
+        <v>-6.336122829333185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.916014453319949</v>
+        <v>-3.002744976431646</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.216163387255278</v>
+        <v>-3.340401520898134</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.093481728467108</v>
+        <v>-4.348752166580585</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.676117771897925</v>
+        <v>-1.557900280988335</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.4769041839725203</v>
+        <v>-0.6292224430976227</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8618858012997905</v>
+        <v>-0.8812887355144428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.545703270444476</v>
+        <v>1.536591804576835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9582290130496505</v>
+        <v>1.047627656496026</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.787496856931472</v>
+        <v>-0.7578753444689977</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.912386745690879</v>
+        <v>2.170815738766419</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.2212715718448935</v>
+        <v>-0.2660585768013293</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.227543608085337</v>
+        <v>-1.338282951338007</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.513567482584914</v>
+        <v>1.412457827022063</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.6965953887514122</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.04192983887426999</v>
+        <v>0.04192983887427011</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1623142878394212</v>
@@ -974,7 +974,7 @@
         <v>-0.3193112562534934</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01990069592835695</v>
+        <v>-0.01990069592835707</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2568421369718181</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8271924369703474</v>
+        <v>-0.8349451250540486</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8909347076844136</v>
+        <v>-0.8685863776459227</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3938398778834161</v>
+        <v>-0.390141564748954</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3647399515141971</v>
+        <v>-0.3636037598749777</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.500714187179406</v>
+        <v>-0.4927154405944503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2333203674911956</v>
+        <v>-0.2361640594003869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4306330377878366</v>
+        <v>-0.4296893508521452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5357085854503315</v>
+        <v>-0.550762205842025</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2103736770521543</v>
+        <v>-0.2019811221290991</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1604575347547683</v>
+        <v>-0.2455454928292421</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3687241194077421</v>
+        <v>-0.3633153645571384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7495158630532277</v>
+        <v>0.7366270090662902</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09566630679918409</v>
+        <v>0.1109322722655848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08051700381598469</v>
+        <v>-0.07187597545574975</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2048706804447106</v>
+        <v>0.2329245253234662</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.03703033545606005</v>
+        <v>-0.04148018278199573</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1961557939008026</v>
+        <v>-0.2131513305446179</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.257018519534188</v>
+        <v>0.2339208322472894</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.76673503080705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.202680402737316</v>
+        <v>1.202680402737317</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.650714609218818</v>
@@ -1083,7 +1083,7 @@
         <v>-7.189538397869185</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04952702409229126</v>
+        <v>0.04952702409229404</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.901345079159817</v>
@@ -1092,7 +1092,7 @@
         <v>-4.471139356184557</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6327182578374058</v>
+        <v>0.6327182578374044</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.063991905600115</v>
+        <v>-4.125056903609477</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.402249154228304</v>
+        <v>-3.598207002742224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7706388425636762</v>
+        <v>-0.9669821196727562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.152850065424639</v>
+        <v>-6.702432408445283</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.32864738301735</v>
+        <v>-9.933922007421154</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.271505503197673</v>
+        <v>-3.292063683094232</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.558445682106723</v>
+        <v>-4.677820609732082</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.08621446396322</v>
+        <v>-6.281723497777379</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.161860830661517</v>
+        <v>-1.332664194381865</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.7864387683096389</v>
+        <v>-0.8419489512489796</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1630822115587033</v>
+        <v>-0.1351990221217854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.41392878483221</v>
+        <v>3.180832354346336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5954011319350142</v>
+        <v>-0.657688680229778</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.527030657366896</v>
+        <v>-4.369396083649771</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.870345206679512</v>
+        <v>3.213158931912198</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.169809143021062</v>
+        <v>-1.223259801167045</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.835090452025848</v>
+        <v>-2.774136898475739</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.441782573135113</v>
+        <v>2.452615121203774</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5402050735588153</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3677371219223944</v>
+        <v>0.3677371219223945</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3175806719354901</v>
@@ -1188,7 +1188,7 @@
         <v>-0.6254278078970068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004308423767356805</v>
+        <v>0.004308423767357046</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3921246882388973</v>
@@ -1197,7 +1197,7 @@
         <v>-0.6042866595600703</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.08551359553183452</v>
+        <v>0.08551359553183434</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8822546134344648</v>
+        <v>-0.8911286291544014</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7685827849831658</v>
+        <v>-0.7929120038516058</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1913014864599291</v>
+        <v>-0.2125916408569991</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5211118927351015</v>
+        <v>-0.5170719495549561</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7527467492248978</v>
+        <v>-0.7500110008698726</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.246296361694742</v>
+        <v>-0.2443418279258607</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5444893646955883</v>
+        <v>-0.5624775644253563</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7223864051856612</v>
+        <v>-0.7279318767759407</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1403137546446662</v>
+        <v>-0.1511486954930909</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1776441343448188</v>
+        <v>-0.2070836362710488</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0002363184937301971</v>
+        <v>0.02526833962115563</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.486576946172215</v>
+        <v>1.42363779358701</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.04449492890714143</v>
+        <v>-0.06338525322031109</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4166235702968181</v>
+        <v>-0.4385816644394332</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3110735690528885</v>
+        <v>0.3265971486242106</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1698489066248329</v>
+        <v>-0.1837485622541122</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4394170377047387</v>
+        <v>-0.4386568972549176</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3987266467409311</v>
+        <v>0.3966220093692148</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.8479458177622569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8926376213537104</v>
+        <v>0.8926376213537112</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.179464517513072</v>
@@ -1297,7 +1297,7 @@
         <v>-4.813602013966396</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.987588161329566</v>
+        <v>-1.987588161329568</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.211333514288207</v>
@@ -1306,7 +1306,7 @@
         <v>-2.915016193198905</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.5817314242391097</v>
+        <v>-0.5817314242391083</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.570155573188506</v>
+        <v>-3.466490350123431</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.295933624240947</v>
+        <v>-2.397789484409871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6923100034029401</v>
+        <v>-0.5403510003862981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.850171535646668</v>
+        <v>-6.638082720941307</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.438001830331614</v>
+        <v>-7.463687279895153</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.251935065726543</v>
+        <v>-4.726646759033612</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.86798733862785</v>
+        <v>-4.691877274580246</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.406524195257283</v>
+        <v>-4.494044464507316</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.145253936974576</v>
+        <v>-2.103634836795479</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.9625247708293739</v>
+        <v>-0.7814403594071613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6694464274471379</v>
+        <v>0.7692881144680543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.441217103083984</v>
+        <v>2.463724461658213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.551905497900377</v>
+        <v>-1.4088557921497</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.998959254498324</v>
+        <v>-2.117621553909574</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4422460793712565</v>
+        <v>0.4477241876608185</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.855950883011243</v>
+        <v>-1.691607969551094</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.234726012696629</v>
+        <v>-1.274718468314477</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7718931222389511</v>
+        <v>0.8541768004690503</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2621371869272049</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2759533806352933</v>
+        <v>0.2759533806352936</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3439033909946778</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3960828112226404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1635468624552037</v>
+        <v>-0.1635468624552038</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4059394984497626</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3684825030396705</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.07353573259750086</v>
+        <v>-0.07353573259750068</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8687259961738384</v>
+        <v>-0.8493159984401908</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5791943447041367</v>
+        <v>-0.6104033680337599</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1972491706916076</v>
+        <v>-0.1531129843668088</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5054181562310399</v>
+        <v>-0.4996167665288673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5574392695697021</v>
+        <v>-0.5461881739891035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3036801326442884</v>
+        <v>-0.3455698730282359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5419505874962913</v>
+        <v>-0.5381901673665953</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5068043176228467</v>
+        <v>-0.524389806300934</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2455629346053387</v>
+        <v>-0.239702932803623</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2971643950266258</v>
+        <v>-0.2754937240204505</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2828832896543146</v>
+        <v>0.2946646946537859</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9902465414834953</v>
+        <v>0.9982183275491846</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1407608540542437</v>
+        <v>-0.12787836846742</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1852968264421376</v>
+        <v>-0.1875479182119414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04852080781539911</v>
+        <v>0.03683981361637113</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2513905653172084</v>
+        <v>-0.2323358619559484</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1731745940889602</v>
+        <v>-0.1824855154748949</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1100034322789496</v>
+        <v>0.1254880556181536</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.527587816629157</v>
+        <v>-2.52468801620502</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.155778052539545</v>
+        <v>-2.22595931141755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01239659443149592</v>
+        <v>-0.07118749917454734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.738876160615322</v>
+        <v>-3.734544431760404</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.04281308930017</v>
+        <v>-6.060714210234269</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.231163623778224</v>
+        <v>-1.252817132381949</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.925550840353409</v>
+        <v>-2.953979540245894</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.892636491694053</v>
+        <v>-4.003264812290679</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3676131381064228</v>
+        <v>-0.3005726771643616</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.191126460557423</v>
+        <v>-1.130617632426209</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.7598649359605529</v>
+        <v>-0.753206843503302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.649712180361088</v>
+        <v>1.669505395327809</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.00734709570485</v>
+        <v>-1.070189236729942</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.315630836522176</v>
+        <v>-3.309471427706245</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.441695396372577</v>
+        <v>1.378446010650635</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.291457881565261</v>
+        <v>-1.252721663397872</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.310518317493971</v>
+        <v>-2.254902646776945</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.281749489979912</v>
+        <v>1.326906707128319</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7317556553784337</v>
+        <v>-0.7243888849881371</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6263717073976092</v>
+        <v>-0.6380870230138591</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.000836569740956984</v>
+        <v>-0.02080356051506261</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3267502742041751</v>
+        <v>-0.3253467052212794</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5226471819835325</v>
+        <v>-0.5252277872799246</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.104718519466622</v>
+        <v>-0.1084814372530886</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3958494449615157</v>
+        <v>-0.3935948418493848</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5294286516116391</v>
+        <v>-0.5317950215423793</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04881214931494856</v>
+        <v>-0.03945149973380217</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.428600650187507</v>
+        <v>-0.4131252218536505</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2971868758330199</v>
+        <v>-0.2867794185363963</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6163763154692662</v>
+        <v>0.6355562766902974</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.09786539863028054</v>
+        <v>-0.105315644807364</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3267357284863705</v>
+        <v>-0.3302269134349683</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1440806623125987</v>
+        <v>0.1381166794122604</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1985886349533669</v>
+        <v>-0.1905582528429933</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3523218932473206</v>
+        <v>-0.3438764821722898</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1994637047231822</v>
+        <v>0.2072200532480188</v>
       </c>
     </row>
     <row r="34">
